--- a/projeto_final.xlsx
+++ b/projeto_final.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Tema</t>
   </si>
@@ -61,6 +61,30 @@
   </si>
   <si>
     <t xml:space="preserve">Ricardo Ribeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambiente CyberBattlesim com Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Davi</t>
+  </si>
+  <si>
+    <t>Henrique</t>
+  </si>
+  <si>
+    <t>Luiza</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markov Decision Process no ambiente SimpleGrid do Gymnasium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Carolina</t>
+  </si>
+  <si>
+    <t>entregue</t>
   </si>
 </sst>
 </file>
@@ -767,42 +791,66 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+    <row r="8" ht="28.5">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+    <row r="12" ht="42.75">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>

--- a/projeto_final.xlsx
+++ b/projeto_final.xlsx
@@ -78,7 +78,7 @@
     <t>Nicolas</t>
   </si>
   <si>
-    <t xml:space="preserve">Markov Decision Process no ambiente SimpleGrid do Gymnasium</t>
+    <t xml:space="preserve">Markov Decision Process no ambiente FrozenLake da Gymnasium</t>
   </si>
   <si>
     <t xml:space="preserve">Ana Carolina</t>
@@ -152,7 +152,7 @@
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -164,9 +164,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -689,9 +686,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="28.140625"/>
     <col customWidth="1" min="2" max="2" width="29.57421875"/>
-    <col customWidth="1" min="3" max="3" width="18.00390625"/>
-    <col customWidth="1" min="4" max="4" width="19.7109375"/>
-    <col customWidth="1" min="5" max="5" width="13.140625"/>
+    <col customWidth="1" min="3" max="3" width="29.421875"/>
+    <col customWidth="1" min="4" max="4" width="35.57421875"/>
+    <col customWidth="1" min="5" max="5" width="24.57421875"/>
     <col customWidth="1" min="6" max="6" width="15.57421875"/>
   </cols>
   <sheetData>
@@ -725,21 +722,21 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" ht="57">
       <c r="A4" s="3" t="s">
@@ -748,48 +745,48 @@
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" ht="28.5">
       <c r="A8" s="3" t="s">
@@ -798,48 +795,48 @@
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" ht="42.75">
       <c r="A12" s="3" t="s">
@@ -848,44 +845,52 @@
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>0.29999999999999999</v>
+      </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.29999999999999999</v>
+      </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/projeto_final.xlsx
+++ b/projeto_final.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
@@ -9,19 +9,19 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Tema</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Alunos</t>
   </si>
   <si>
-    <t xml:space="preserve">Descrição do título e ambiente</t>
+    <t xml:space="preserve">Descrição do objetivo</t>
   </si>
   <si>
     <t xml:space="preserve">Descrição do método e resultados</t>
@@ -33,65 +33,71 @@
     <t>Apresentações</t>
   </si>
   <si>
-    <t xml:space="preserve">FLATLANDS - Uma análise de modelos (DQN x PPO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giancarlo Ruggiero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não entregaram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tales Ivalque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employing reinforcement learning-powered drone swarms to locate shipwrecked individuals</t>
-  </si>
-  <si>
-    <t>Jorás</t>
-  </si>
-  <si>
-    <t>Entregue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro Henrique</t>
-  </si>
-  <si>
-    <t>Renato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo Ribeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambiente CyberBattlesim com Reinforcement Learning</t>
-  </si>
-  <si>
-    <t>Davi</t>
-  </si>
-  <si>
-    <t>Henrique</t>
-  </si>
-  <si>
-    <t>Luiza</t>
-  </si>
-  <si>
-    <t>Nicolas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Markov Decision Process no ambiente FrozenLake da Gymnasium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Carolina</t>
-  </si>
-  <si>
-    <t>entregue</t>
+    <t xml:space="preserve">ANDRÉ CORRÊA SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRUNO BOLDRIM SABOYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEGO AZENHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jogador de Poker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FELIPE CATAPANO e RODRIGO ANCIÃES PATELLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulador de ROS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FELIPE DRUMMOND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUDSON MONTEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOÃO ALONSO CASELLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOÃO GABRIEL VALENTIM ROCHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOÃO LUCAS DE MORAES BARROS CADORNIGA e PEDRO VAZ DE MORAES PERTUSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dilema do prisioneiro iterado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOÃO VITOR ROCHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIZ FELIPE LAZZARON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcelo Rabello Barranco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCOS PAULO RICARTE REBOUÇAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARINNA GRIGOLLI CESAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBERTA BARROS TEIXEIRA PEREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMAS RODRIGUES ALESSI</t>
+  </si>
+  <si>
+    <t>Connect4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -116,6 +122,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.500000"/>
+      <color rgb="FF262626"/>
+      <name val="Open Sans"/>
     </font>
   </fonts>
   <fills count="4">
@@ -157,17 +169,17 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -684,12 +696,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.140625"/>
-    <col customWidth="1" min="2" max="2" width="29.57421875"/>
-    <col customWidth="1" min="3" max="3" width="29.421875"/>
-    <col customWidth="1" min="4" max="4" width="35.57421875"/>
-    <col customWidth="1" min="5" max="5" width="24.57421875"/>
-    <col customWidth="1" min="6" max="6" width="15.57421875"/>
+    <col customWidth="1" min="1" max="1" width="57.57421875"/>
+    <col customWidth="1" min="2" max="2" width="29.421875"/>
+    <col customWidth="1" min="3" max="3" width="35.57421875"/>
+    <col customWidth="1" min="4" max="4" width="24.57421875"/>
+    <col customWidth="1" min="5" max="5" width="15.57421875"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5">
@@ -708,189 +719,161 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" ht="15.75">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="28.5">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="3" ht="15.75">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" ht="57">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="4" ht="15.75">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="5" ht="15.75">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="6" ht="15.75">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    </row>
+    <row r="7" ht="15.75">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" ht="28.5">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="8" ht="15.75">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="9" ht="15.75">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="10" ht="31.5">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="11" ht="15.75">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" ht="42.75">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="12" ht="15.75">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3">
-        <v>0.29999999999999999</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="2"/>
+    </row>
+    <row r="13" ht="15.75">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="3"/>
+    </row>
+    <row r="14" ht="15.75">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="3"/>
+    </row>
+    <row r="15" ht="15.75">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3">
-        <v>0.29999999999999999</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.29999999999999999</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" ht="15.75">
+      <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+    </row>
+    <row r="17" ht="15.75">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" ht="15.75">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
